--- a/大论文/敏感性.xlsx
+++ b/大论文/敏感性.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/langdylan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/langdylan/MasterArticle/2017CQUMaster/大论文/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="近邻数" sheetId="1" r:id="rId1"/>
-    <sheet name="稳定性" sheetId="2" r:id="rId2"/>
-    <sheet name="QPH" sheetId="3" r:id="rId3"/>
+    <sheet name="实验1" sheetId="4" r:id="rId1"/>
+    <sheet name="近邻数" sheetId="1" r:id="rId2"/>
+    <sheet name="稳定性" sheetId="2" r:id="rId3"/>
+    <sheet name="QPH" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>K</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,12 +126,50 @@
     <t xml:space="preserve">AVG-UCI    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>数据集</t>
+  </si>
+  <si>
+    <t>距离度量</t>
+  </si>
+  <si>
+    <t>GHPKM</t>
+  </si>
+  <si>
+    <t>Ker-GHPKM</t>
+  </si>
+  <si>
+    <t>KMEANS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPCA-Hub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA-Hub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +219,23 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +272,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -254,8 +310,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,8 +360,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -315,6 +396,11 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -333,6 +419,11 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -348,7 +439,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="1"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -357,1171 +448,431 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>图表标题</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>近邻数!$B$1</c:f>
+              <c:f>实验1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>parkinsons</c:v>
+                  <c:v>KMEANS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>实验1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>Ionosphere</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>mfeat-factors</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>musk</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>parkinsons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>sonar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>wpbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近邻数!$B$2:$B$22</c:f>
+              <c:f>实验1!$B$13:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3767</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.509</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3704</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.401</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1778</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2697</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3542</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6139</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1207</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2387</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2484</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2314</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2292</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2308</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.7257</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7339</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.0619</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.063</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>近邻数!$C$1</c:f>
+              <c:f>实验1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ionosphere</c:v>
+                  <c:v>GHPKM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>实验1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>Ionosphere</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>mfeat-factors</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>musk</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>parkinsons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>sonar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>wpbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近邻数!$C$2:$C$22</c:f>
+              <c:f>实验1!$C$13:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3633</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3539</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3629</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3432</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3427</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3569</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3643</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3221</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1645</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.309</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3751</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3755</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.388</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3604</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3543</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.354</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2231</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.3508</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.35</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>近邻数!$D$1</c:f>
+              <c:f>实验1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wbpc</c:v>
+                  <c:v>Ker-KM  [4]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>实验1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>Ionosphere</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>mfeat-factors</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>musk</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>parkinsons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>sonar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>wpbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近邻数!$D$2:$D$22</c:f>
+              <c:f>实验1!$D$13:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2782</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.282</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1076</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2793</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1967</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2253</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2226</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1167</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1871</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0477</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2262</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.0019</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0028</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0079</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1968</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0332</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0272</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>近邻数!$E$1</c:f>
+              <c:f>实验1!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>musk</c:v>
+                  <c:v>Ker-GHPKM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>实验1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>Ionosphere</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>mfeat-factors</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>musk</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>parkinsons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>sonar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>wpbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近邻数!$E$2:$E$22</c:f>
+              <c:f>实验1!$E$13:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2095</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1676</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2061</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1855</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1989</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0946</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1121</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1639</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1665</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1692</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1627</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1586</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1319</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1151</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2722</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2779</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2187</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.173</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1562</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>近邻数!$F$1</c:f>
+              <c:f>实验1!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mfeat-factors</c:v>
+                  <c:v>PH-KM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>实验1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>Ionosphere</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>mfeat-factors</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>musk</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>parkinsons</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>sonar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>wpbc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近邻数!$F$2:$F$22</c:f>
+              <c:f>实验1!$F$13:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1051</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1165</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1158</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1296</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1173</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1264</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1242</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1505</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1411</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1284</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1448</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.144</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1315</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1211</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1513</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>近邻数!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sonar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>近邻数!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>近邻数!$G$2:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0891</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1067</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0973</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0971</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1297</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1493</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1701</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1544</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1555</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1242</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1512</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0929</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1067</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0961</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1531,13 +882,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1626960352"/>
-        <c:axId val="-1668358832"/>
-      </c:lineChart>
+        <c:gapWidth val="300"/>
+        <c:axId val="1182281936"/>
+        <c:axId val="1182284256"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-1626960352"/>
+        <c:axId val="1182281936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,21 +900,21 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="FangSong" charset="-122"/>
-                    <a:ea typeface="FangSong" charset="-122"/>
-                    <a:cs typeface="FangSong" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>近邻数</a:t>
+                  <a:t>数据库</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1583,16 +933,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="FangSong" charset="-122"/>
-                  <a:ea typeface="FangSong" charset="-122"/>
-                  <a:cs typeface="FangSong" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -1636,7 +986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1668358832"/>
+        <c:crossAx val="1182284256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1668358832"/>
+        <c:axId val="1182284256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,6 +1014,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1671,16 +1035,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="FangSong" charset="-122"/>
-                    <a:ea typeface="FangSong" charset="-122"/>
-                    <a:cs typeface="FangSong" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1704,23 +1068,23 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="FangSong" charset="-122"/>
-                  <a:ea typeface="FangSong" charset="-122"/>
-                  <a:cs typeface="FangSong" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1750,35 +1114,21 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1626960352"/>
-        <c:crossesAt val="1.0"/>
+        <c:crossAx val="1182281936"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:sysClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0934541721888724"/>
-          <c:y val="0.884659831679099"/>
-          <c:w val="0.882081806605857"/>
-          <c:h val="0.0794794456607506"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1792,7 +1142,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1860,14 +1210,1228 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parkinsons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.3767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2314</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2292</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7257</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.0619</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ionosphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.3633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3755</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.354</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3508</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wbpc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.2782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0477</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0332</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>musk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.2095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2722</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.173</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mfeat-factors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.1051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1242</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1284</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近邻数!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sonar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>近邻数!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近邻数!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1544</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1512</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1067</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1104607312"/>
+        <c:axId val="1099509296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1104607312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>近邻数 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" i="1">
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" i="1">
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1879,13 +2443,143 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>图表标题</a:t>
-            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="1099509296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1099509296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>轮廓系数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104607312"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1900,23 +2594,75 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3124,11 +3870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1668304064"/>
-        <c:axId val="-1626340944"/>
+        <c:axId val="1104633056"/>
+        <c:axId val="1104636400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1668304064"/>
+        <c:axId val="1104633056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1626340944"/>
+        <c:crossAx val="1104636400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3244,7 +3990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1626340944"/>
+        <c:axId val="1104636400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +4100,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1668304064"/>
+        <c:crossAx val="1104633056"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,8 +4123,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.375632329828337"/>
-          <c:y val="0.0844926521524914"/>
+          <c:x val="0.372911652649645"/>
+          <c:y val="0.0328131839960134"/>
           <c:w val="0.606504282228055"/>
           <c:h val="0.0794794456607506"/>
         </c:manualLayout>
@@ -3449,7 +4195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4128,11 +4874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1589441232"/>
-        <c:axId val="-1556639392"/>
+        <c:axId val="1104693696"/>
+        <c:axId val="1104697456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1589441232"/>
+        <c:axId val="1104693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,7 +4977,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1556639392"/>
+        <c:crossAx val="1104697456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4239,7 +4985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1556639392"/>
+        <c:axId val="1104697456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,7 +5091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1589441232"/>
+        <c:crossAx val="1104693696"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4440,7 +5186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4453,6 +5199,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4476,9 +5223,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4560,9 +5312,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4644,9 +5401,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4728,9 +5490,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4812,11 +5579,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4896,9 +5671,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:srgbClr val="4472C4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4973,18 +5753,44 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-1626639840"/>
-        <c:axId val="-1662195856"/>
+        <c:gapWidth val="300"/>
+        <c:axId val="1264614048"/>
+        <c:axId val="1264615824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1626639840"/>
+        <c:axId val="1264614048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据集</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -5016,7 +5822,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5052,7 +5858,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1662195856"/>
+        <c:crossAx val="1264615824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5060,7 +5866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1662195856"/>
+        <c:axId val="1264615824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,7 +5886,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>轮廓系数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -5141,7 +5986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1626639840"/>
+        <c:crossAx val="1264614048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5156,6 +6001,656 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QPH!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QPCA-Hub</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>QPH!$A$24:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ionosphere</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mfeat-factors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>musk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>parkinsons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sonar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wpbc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AVG-UCI    </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QPH!$B$24:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QPH!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-Hub</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>QPH!$A$24:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Ionosphere</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mfeat-factors</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>musk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>parkinsons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sonar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wpbc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AVG-UCI    </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>QPH!$C$24:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1203696128"/>
+        <c:axId val="1264837904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1203696128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据库</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264837904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1264837904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>迭代次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203696128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.710296909833705"/>
+          <c:y val="0.0636778771324015"/>
+          <c:w val="0.248795653820307"/>
+          <c:h val="0.0634350866371869"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5382,8 +6877,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6892,7 +8467,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7394,7 +8969,1048 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549702</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7429,7 +10045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7464,7 +10080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7498,16 +10114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309033</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7521,6 +10137,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1229295</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569872</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187244</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8546,11 +11192,663 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="134" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>351</v>
+      </c>
+      <c r="C2" s="16">
+        <v>34</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="16">
+        <v>216</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="16">
+        <v>166</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16">
+        <v>195</v>
+      </c>
+      <c r="C5" s="16">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16">
+        <v>208</v>
+      </c>
+      <c r="C6" s="16">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>198</v>
+      </c>
+      <c r="C7" s="16">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -9090,11 +12388,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
@@ -10281,12 +13579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10376,7 +13674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -10582,13 +13880,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="10">
         <v>0.25</v>
       </c>
@@ -10848,6 +14146,94 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:E8"/>
